--- a/rojectoo/backlog.xlsx
+++ b/rojectoo/backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianmac/Documents/school/ma/bewijzenmap/periode 1.1/proj /rojectoo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianmac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE31632F-0579-DC40-97B4-00317B915CC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE833759-D891-F942-837D-89FDE2A31E46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EB1CCB25-A752-5949-8453-32BB1C575F22}"/>
+    <workbookView xWindow="6380" yWindow="460" windowWidth="22200" windowHeight="16140" xr2:uid="{EB1CCB25-A752-5949-8453-32BB1C575F22}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>feature</t>
   </si>
@@ -54,24 +54,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>user sign in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acount registration </t>
-  </si>
-  <si>
-    <t>User profiles</t>
-  </si>
-  <si>
-    <t>user can login to the site</t>
-  </si>
-  <si>
-    <t>Profiel veranderingen kunnen aanbrengen</t>
-  </si>
-  <si>
-    <t>Persoonlijk profiel</t>
-  </si>
-  <si>
     <t>if user</t>
   </si>
   <si>
@@ -88,13 +70,148 @@
   </si>
   <si>
     <t>een categorie aan de foto hangen</t>
+  </si>
+  <si>
+    <t>gebruikersnaam invullen</t>
+  </si>
+  <si>
+    <t>invulvak voor gebruikersnaam</t>
+  </si>
+  <si>
+    <t>kan gebruikersnaam invullen</t>
+  </si>
+  <si>
+    <t>wachtwoord invullen</t>
+  </si>
+  <si>
+    <t>invulvak voor wachtwoord</t>
+  </si>
+  <si>
+    <t>kan wachtwoord invullen</t>
+  </si>
+  <si>
+    <t>in kunnen loggen</t>
+  </si>
+  <si>
+    <t>submit knop</t>
+  </si>
+  <si>
+    <t>kan inloggen als je er op klikt</t>
+  </si>
+  <si>
+    <t>kunnen registeren</t>
+  </si>
+  <si>
+    <t>vak waar je een account kunt maken</t>
+  </si>
+  <si>
+    <t>kan registeren op de website</t>
+  </si>
+  <si>
+    <t>wachtwoord vergeten nieuw wachtwoord instellen</t>
+  </si>
+  <si>
+    <t>knop waar je op drukt als je je wachtwoord bent veregeten</t>
+  </si>
+  <si>
+    <t>nieuw wachtwoord istellen als je het vergeten bent</t>
+  </si>
+  <si>
+    <t>emial kunnen invullen als je registeerd</t>
+  </si>
+  <si>
+    <t>invulvak voor email</t>
+  </si>
+  <si>
+    <t>kan email invullen</t>
+  </si>
+  <si>
+    <t>Home:</t>
+  </si>
+  <si>
+    <t>Foto in categorien</t>
+  </si>
+  <si>
+    <t>knop</t>
+  </si>
+  <si>
+    <t>Fotos worden op categorie gezet.</t>
+  </si>
+  <si>
+    <t>upload page:</t>
+  </si>
+  <si>
+    <t>Titels</t>
+  </si>
+  <si>
+    <t>titel toevoegen aan foto</t>
+  </si>
+  <si>
+    <t>fotos hebben een titel</t>
+  </si>
+  <si>
+    <t>registreren</t>
+  </si>
+  <si>
+    <t>login knop</t>
+  </si>
+  <si>
+    <t>zelf een eigen account hebben</t>
+  </si>
+  <si>
+    <t>Profiel</t>
+  </si>
+  <si>
+    <t>Gebruikers profiel</t>
+  </si>
+  <si>
+    <t>informatie bij de foto toe voegen</t>
+  </si>
+  <si>
+    <t>Een eigen profiel met voorkeurs opties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description box </t>
+  </si>
+  <si>
+    <t>Categorie bladeren</t>
+  </si>
+  <si>
+    <t>lijst</t>
+  </si>
+  <si>
+    <t>een bedchrijving onde rde foto</t>
+  </si>
+  <si>
+    <t>Makkelijk navigeren tussen categorien</t>
+  </si>
+  <si>
+    <t>normaal voorbeeld</t>
+  </si>
+  <si>
+    <t>kunnen zien hoe het miniatuur er uit ziet</t>
+  </si>
+  <si>
+    <t>thumbail voorbeeld kunnen zien</t>
+  </si>
+  <si>
+    <t>een thumbnail kunnen zien</t>
+  </si>
+  <si>
+    <t>kunnen zien hoe je foto er uit gaat zien</t>
+  </si>
+  <si>
+    <t>log in pop ups:</t>
+  </si>
+  <si>
+    <t>een goed beeld van de foto die je upload krijgen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +222,14 @@
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,17 +264,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,25 +596,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1D67DF-8F3B-CA43-9588-63B230BDDF9D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="39.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -499,93 +628,367 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
